--- a/classfiers/mega/svm/smote/mega-svm-sigmoid-smote-results.xlsx
+++ b/classfiers/mega/svm/smote/mega-svm-sigmoid-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5068027210884354</v>
+        <v>0.5477941176470589</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8054054054054054</v>
+        <v>0.8010752688172043</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6221294363256785</v>
+        <v>0.6506550218340612</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4758509861212564</v>
+        <v>0.6317782402589895</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8265895953757225</v>
+        <v>0.9467455621301775</v>
       </c>
       <c r="C3" t="n">
-        <v>0.772972972972973</v>
+        <v>0.8602150537634409</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7988826815642458</v>
+        <v>0.9014084507042253</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8590504017531044</v>
+        <v>0.8795525494276796</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.9371428571428572</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7189189189189189</v>
+        <v>0.8817204301075269</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7846607669616519</v>
+        <v>0.9085872576177285</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9066764061358658</v>
+        <v>0.9164643311365476</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7441860465116279</v>
+        <v>0.9675324675324676</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6918918918918919</v>
+        <v>0.8010752688172043</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7170868347338936</v>
+        <v>0.8764705882352942</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7778232286340394</v>
+        <v>0.85059575704737</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9701492537313433</v>
+        <v>0.8579234972677595</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7027027027027027</v>
+        <v>0.8486486486486486</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8150470219435737</v>
+        <v>0.8532608695652173</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9663988312636962</v>
+        <v>0.8512351060738159</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7822727960686986</v>
+        <v>0.8514277003440641</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7383783783783784</v>
+        <v>0.8385469340308049</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7475613483058087</v>
+        <v>0.8380764375913052</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7971599707815924</v>
+        <v>0.8259251967888804</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/mega/svm/smote/mega-svm-sigmoid-smote-results.xlsx
+++ b/classfiers/mega/svm/smote/mega-svm-sigmoid-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5477941176470589</v>
+        <v>0.5443548387096774</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8010752688172043</v>
+        <v>0.7988165680473372</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6506550218340612</v>
+        <v>0.6474820143884892</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6317782402589895</v>
+        <v>0.6172402927068379</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9467455621301775</v>
+        <v>0.9463087248322147</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8602150537634409</v>
+        <v>0.834319526627219</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9014084507042253</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8795525494276796</v>
+        <v>0.8953818143622423</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9371428571428572</v>
+        <v>0.9342105263157895</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8817204301075269</v>
+        <v>0.8402366863905325</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9085872576177285</v>
+        <v>0.8847352024922118</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9164643311365476</v>
+        <v>0.8980077728370855</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9675324675324676</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8010752688172043</v>
+        <v>0.8520710059171598</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8764705882352942</v>
+        <v>0.8861538461538462</v>
       </c>
       <c r="E5" t="n">
-        <v>0.85059575704737</v>
+        <v>0.8956969293792234</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8579234972677595</v>
+        <v>0.8511904761904762</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8486486486486486</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8532608695652173</v>
+        <v>0.8486646884272997</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8512351060738159</v>
+        <v>0.8578481145618151</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8514277003440641</v>
+        <v>0.8398282978250162</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8385469340308049</v>
+        <v>0.8343195266272188</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8380764375913052</v>
+        <v>0.8307656408584071</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8259251967888804</v>
+        <v>0.8328349847694408</v>
       </c>
     </row>
   </sheetData>
